--- a/Test Data Driven/AI-Generated/Common/fillShippingAddressAndProceedToPayment.xlsx
+++ b/Test Data Driven/AI-Generated/Common/fillShippingAddressAndProceedToPayment.xlsx
@@ -451,7 +451,7 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="36" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="36" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -473,7 +473,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>var_4_input_zipcode</t>
+          <t>var_4_input_zipCode</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>var_6_textbox_shippingAddressState</t>
+          <t>var_6_input_state</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
